--- a/downloaded_files/CMPS454_Lecture-35558.xlsx
+++ b/downloaded_files/CMPS454_Lecture-35558.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -105,15 +105,6 @@
     <x:t>Danah Rafik Reyad Aly Hassan</x:t>
   </x:si>
   <x:si>
-    <x:t>1210226</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد احمد محمد مهدى عصر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ziad Ahmed Mohamed Mahdy Asar</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210054</x:t>
   </x:si>
   <x:si>
@@ -346,15 +337,6 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Mohammed Mounir Loutfy Mohammed Abdel-Moniem Loutfy Loutfy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210303</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم مصطفى عمر حبيب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mariam Mostafa Omar Habeb</x:t>
   </x:si>
   <x:si>
     <x:t>1210162</x:t>
@@ -533,7 +515,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -833,7 +815,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1180,7 +1162,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4145456019</x:v>
+        <x:v>45906.6643954514</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1212,7 +1194,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6643954514</x:v>
+        <x:v>45913.5200596875</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1244,7 +1226,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45913.5200596875</x:v>
+        <x:v>45906.4142010417</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1276,7 +1258,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4142010417</x:v>
+        <x:v>45906.4143372338</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1308,7 +1290,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4143372338</x:v>
+        <x:v>45906.4159910532</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1340,7 +1322,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4159910532</x:v>
+        <x:v>45914.1112114583</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1372,7 +1354,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.1112114583</x:v>
+        <x:v>45906.4145929051</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1404,7 +1386,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4145929051</x:v>
+        <x:v>45913.5323131944</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1436,7 +1418,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45913.5323131944</x:v>
+        <x:v>45914.7149191782</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1468,7 +1450,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.7149191782</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1500,7 +1482,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45906.4146991898</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1532,7 +1514,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4146991898</x:v>
+        <x:v>45914.7161256134</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1564,7 +1546,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.7161256134</x:v>
+        <x:v>45912.3329945255</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1596,7 +1578,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.3329945255</x:v>
+        <x:v>45913.8205453704</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1628,7 +1610,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45913.8205453704</x:v>
+        <x:v>45906.6643790509</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1660,7 +1642,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6643790509</x:v>
+        <x:v>45906.6642594097</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1692,7 +1674,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6642594097</x:v>
+        <x:v>45906.4185215625</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1724,7 +1706,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4185215625</x:v>
+        <x:v>45906.4143330671</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1756,7 +1738,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4143330671</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1788,7 +1770,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45906.4149950579</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1820,7 +1802,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4149950579</x:v>
+        <x:v>45913.9890988773</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1852,7 +1834,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45913.9890988773</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1884,7 +1866,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45906.4190332523</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1916,7 +1898,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4190332523</x:v>
+        <x:v>45913.5196659722</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1948,7 +1930,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45913.5196659722</x:v>
+        <x:v>45906.4315089931</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1980,7 +1962,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4315089931</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2012,7 +1994,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45914.702896331</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2044,7 +2026,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4146067477</x:v>
+        <x:v>45913.5364310185</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2076,7 +2058,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45914.702896331</x:v>
+        <x:v>45906.4182658912</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2108,7 +2090,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45913.5364310185</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2140,7 +2122,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.4182658912</x:v>
+        <x:v>45914.7018601852</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2172,7 +2154,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45906.5710977662</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2204,7 +2186,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45914.7018601852</x:v>
+        <x:v>45913.5199584491</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2221,70 +2203,6 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:20">
-      <x:c r="A43" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B43" s="2" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="C43" s="2" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="E43" s="3">
-        <x:v>45906.5710977662</x:v>
-      </x:c>
-      <x:c r="F43" s="2" t="s"/>
-      <x:c r="G43" s="2" t="s"/>
-      <x:c r="H43" s="2" t="s"/>
-      <x:c r="I43" s="2" t="s"/>
-      <x:c r="J43" s="2" t="s"/>
-      <x:c r="K43" s="2" t="s"/>
-      <x:c r="L43" s="2" t="s"/>
-      <x:c r="M43" s="2" t="s"/>
-      <x:c r="N43" s="2" t="s"/>
-      <x:c r="O43" s="2" t="s"/>
-      <x:c r="P43" s="2" t="s"/>
-      <x:c r="Q43" s="2" t="s"/>
-      <x:c r="R43" s="2" t="s"/>
-      <x:c r="S43" s="2" t="s"/>
-      <x:c r="T43" s="2" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:20">
-      <x:c r="A44" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B44" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="C44" s="2" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="E44" s="3">
-        <x:v>45913.5199584491</x:v>
-      </x:c>
-      <x:c r="F44" s="2" t="s"/>
-      <x:c r="G44" s="2" t="s"/>
-      <x:c r="H44" s="2" t="s"/>
-      <x:c r="I44" s="2" t="s"/>
-      <x:c r="J44" s="2" t="s"/>
-      <x:c r="K44" s="2" t="s"/>
-      <x:c r="L44" s="2" t="s"/>
-      <x:c r="M44" s="2" t="s"/>
-      <x:c r="N44" s="2" t="s"/>
-      <x:c r="O44" s="2" t="s"/>
-      <x:c r="P44" s="2" t="s"/>
-      <x:c r="Q44" s="2" t="s"/>
-      <x:c r="R44" s="2" t="s"/>
-      <x:c r="S44" s="2" t="s"/>
-      <x:c r="T44" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS454_Lecture-35558.xlsx
+++ b/downloaded_files/CMPS454_Lecture-35558.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -319,15 +319,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Mamdouh Sayed Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود على عباس حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohmoud Ali Abas Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1210295</x:t>
@@ -515,7 +506,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -815,7 +806,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1930,7 +1921,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4315089931</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1962,7 +1953,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45914.702896331</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1994,7 +1985,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.702896331</x:v>
+        <x:v>45913.5364310185</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2026,7 +2017,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45913.5364310185</x:v>
+        <x:v>45906.4182658912</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2058,7 +2049,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.4182658912</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2090,7 +2081,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45914.7018601852</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2122,7 +2113,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45914.7018601852</x:v>
+        <x:v>45906.5710977662</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2154,7 +2145,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.5710977662</x:v>
+        <x:v>45913.5199584491</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2171,38 +2162,6 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
-    </x:row>
-    <x:row r="42" spans="1:20">
-      <x:c r="A42" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B42" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="C42" s="2" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="E42" s="3">
-        <x:v>45913.5199584491</x:v>
-      </x:c>
-      <x:c r="F42" s="2" t="s"/>
-      <x:c r="G42" s="2" t="s"/>
-      <x:c r="H42" s="2" t="s"/>
-      <x:c r="I42" s="2" t="s"/>
-      <x:c r="J42" s="2" t="s"/>
-      <x:c r="K42" s="2" t="s"/>
-      <x:c r="L42" s="2" t="s"/>
-      <x:c r="M42" s="2" t="s"/>
-      <x:c r="N42" s="2" t="s"/>
-      <x:c r="O42" s="2" t="s"/>
-      <x:c r="P42" s="2" t="s"/>
-      <x:c r="Q42" s="2" t="s"/>
-      <x:c r="R42" s="2" t="s"/>
-      <x:c r="S42" s="2" t="s"/>
-      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS454_Lecture-35558.xlsx
+++ b/downloaded_files/CMPS454_Lecture-35558.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -328,15 +328,6 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Mohammed Mounir Loutfy Mohammed Abdel-Moniem Loutfy Loutfy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>معاذ محمد السيد هاشم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Moaz Mohamed Alsayed Hashem</x:t>
   </x:si>
   <x:si>
     <x:t>1210381</x:t>
@@ -506,7 +497,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -806,7 +797,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T41"/>
+  <x:dimension ref="A1:T40"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1953,7 +1944,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.702896331</x:v>
+        <x:v>45913.5364310185</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1985,7 +1976,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45913.5364310185</x:v>
+        <x:v>45906.4182658912</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2017,7 +2008,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4182658912</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2049,7 +2040,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45914.7018601852</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2081,7 +2072,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45914.7018601852</x:v>
+        <x:v>45906.5710977662</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2113,7 +2104,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.5710977662</x:v>
+        <x:v>45913.5199584491</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2130,38 +2121,6 @@
       <x:c r="R40" s="2" t="s"/>
       <x:c r="S40" s="2" t="s"/>
       <x:c r="T40" s="2" t="s"/>
-    </x:row>
-    <x:row r="41" spans="1:20">
-      <x:c r="A41" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B41" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="C41" s="2" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="E41" s="3">
-        <x:v>45913.5199584491</x:v>
-      </x:c>
-      <x:c r="F41" s="2" t="s"/>
-      <x:c r="G41" s="2" t="s"/>
-      <x:c r="H41" s="2" t="s"/>
-      <x:c r="I41" s="2" t="s"/>
-      <x:c r="J41" s="2" t="s"/>
-      <x:c r="K41" s="2" t="s"/>
-      <x:c r="L41" s="2" t="s"/>
-      <x:c r="M41" s="2" t="s"/>
-      <x:c r="N41" s="2" t="s"/>
-      <x:c r="O41" s="2" t="s"/>
-      <x:c r="P41" s="2" t="s"/>
-      <x:c r="Q41" s="2" t="s"/>
-      <x:c r="R41" s="2" t="s"/>
-      <x:c r="S41" s="2" t="s"/>
-      <x:c r="T41" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS454_Lecture-35558.xlsx
+++ b/downloaded_files/CMPS454_Lecture-35558.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,15 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1210194</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد عشري بخيت</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mohamed Ashry Bekhet</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210405</x:t>
   </x:si>
   <x:si>
@@ -150,15 +141,6 @@
     <x:t>Doha Abdel Fattah Mohamed Yosry ELBeltagy</x:t>
   </x:si>
   <x:si>
-    <x:t>1210248</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن احمد محمد احمد محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Ahmed Mohamed Ahmed Mahmoud</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210015</x:t>
   </x:si>
   <x:si>
@@ -213,15 +195,6 @@
     <x:t>Omar Ahmed Maher Kaddah</x:t>
   </x:si>
   <x:si>
-    <x:t>4220133</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فاروق ضياء الدين فاروق السيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Farouq Diaa Eldin Farouk ElSayed</x:t>
-  </x:si>
-  <x:si>
     <x:t>4230161</x:t>
   </x:si>
   <x:si>
@@ -301,15 +274,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Amar Ali Awaad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد ماهر محمد رفعت</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Maher Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210416</x:t>
@@ -497,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -797,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T40"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -888,7 +852,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.4144664352</x:v>
+        <x:v>45913.5194234606</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -920,7 +884,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45913.5194234606</x:v>
+        <x:v>45906.4143751157</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -952,7 +916,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.4143751157</x:v>
+        <x:v>45906.4225206366</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -984,7 +948,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4225206366</x:v>
+        <x:v>45913.5367329514</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1016,7 +980,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45913.5367329514</x:v>
+        <x:v>45913.5212633102</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1048,7 +1012,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45913.5212633102</x:v>
+        <x:v>45913.5362588773</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1080,7 +1044,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45913.5362588773</x:v>
+        <x:v>45913.5360164352</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1112,7 +1076,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45913.5360164352</x:v>
+        <x:v>45906.6643954514</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1144,7 +1108,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6643954514</x:v>
+        <x:v>45913.5200596875</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1176,7 +1140,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45913.5200596875</x:v>
+        <x:v>45906.4142010417</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1208,7 +1172,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4142010417</x:v>
+        <x:v>45906.4143372338</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1240,7 +1204,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4143372338</x:v>
+        <x:v>45906.4159910532</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1272,7 +1236,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4159910532</x:v>
+        <x:v>45906.4145929051</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1304,7 +1268,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.1112114583</x:v>
+        <x:v>45913.5323131944</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1336,7 +1300,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4145929051</x:v>
+        <x:v>45914.7149191782</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1368,7 +1332,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45913.5323131944</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1400,7 +1364,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.7149191782</x:v>
+        <x:v>45906.4146991898</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1432,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45914.7161256134</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1464,7 +1428,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4146991898</x:v>
+        <x:v>45913.8205453704</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1496,7 +1460,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.7161256134</x:v>
+        <x:v>45906.6643790509</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1528,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.3329945255</x:v>
+        <x:v>45906.6642594097</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1560,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45913.8205453704</x:v>
+        <x:v>45906.4185215625</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1592,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6643790509</x:v>
+        <x:v>45906.4143330671</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1624,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6642594097</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1656,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4185215625</x:v>
+        <x:v>45906.4149950579</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1688,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4143330671</x:v>
+        <x:v>45913.9890988773</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1720,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1752,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4149950579</x:v>
+        <x:v>45913.5196659722</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1784,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45913.9890988773</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1816,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45913.5364310185</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1848,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4190332523</x:v>
+        <x:v>45906.4182658912</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1880,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45913.5196659722</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1912,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45914.7018601852</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1944,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45913.5364310185</x:v>
+        <x:v>45906.5710977662</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1976,7 +1940,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4182658912</x:v>
+        <x:v>45913.5199584491</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1993,134 +1957,6 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45906.4144923958</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45914.7018601852</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:20">
-      <x:c r="A39" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B39" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C39" s="2" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E39" s="3">
-        <x:v>45906.5710977662</x:v>
-      </x:c>
-      <x:c r="F39" s="2" t="s"/>
-      <x:c r="G39" s="2" t="s"/>
-      <x:c r="H39" s="2" t="s"/>
-      <x:c r="I39" s="2" t="s"/>
-      <x:c r="J39" s="2" t="s"/>
-      <x:c r="K39" s="2" t="s"/>
-      <x:c r="L39" s="2" t="s"/>
-      <x:c r="M39" s="2" t="s"/>
-      <x:c r="N39" s="2" t="s"/>
-      <x:c r="O39" s="2" t="s"/>
-      <x:c r="P39" s="2" t="s"/>
-      <x:c r="Q39" s="2" t="s"/>
-      <x:c r="R39" s="2" t="s"/>
-      <x:c r="S39" s="2" t="s"/>
-      <x:c r="T39" s="2" t="s"/>
-    </x:row>
-    <x:row r="40" spans="1:20">
-      <x:c r="A40" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B40" s="2" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="C40" s="2" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="D40" s="2" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="E40" s="3">
-        <x:v>45913.5199584491</x:v>
-      </x:c>
-      <x:c r="F40" s="2" t="s"/>
-      <x:c r="G40" s="2" t="s"/>
-      <x:c r="H40" s="2" t="s"/>
-      <x:c r="I40" s="2" t="s"/>
-      <x:c r="J40" s="2" t="s"/>
-      <x:c r="K40" s="2" t="s"/>
-      <x:c r="L40" s="2" t="s"/>
-      <x:c r="M40" s="2" t="s"/>
-      <x:c r="N40" s="2" t="s"/>
-      <x:c r="O40" s="2" t="s"/>
-      <x:c r="P40" s="2" t="s"/>
-      <x:c r="Q40" s="2" t="s"/>
-      <x:c r="R40" s="2" t="s"/>
-      <x:c r="S40" s="2" t="s"/>
-      <x:c r="T40" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS454_Lecture-35558.xlsx
+++ b/downloaded_files/CMPS454_Lecture-35558.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -69,15 +69,6 @@
     <x:t>Aya Mohamed Abdeltawab Alsayed</x:t>
   </x:si>
   <x:si>
-    <x:t>1210048</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بلال اشرف سباق حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>belal ashraf sabbaq hassan</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210133</x:t>
   </x:si>
   <x:si>
@@ -256,15 +247,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Tarek Ahmed Afifi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220083</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد عماد عبدالمنعم المظلوم محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohammad Emad Abd ELmoniem Elmazloum Mohammad</x:t>
   </x:si>
   <x:si>
     <x:t>1210356</x:t>
@@ -461,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -980,7 +962,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45913.5212633102</x:v>
+        <x:v>45913.5362588773</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1012,7 +994,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45913.5362588773</x:v>
+        <x:v>45913.5360164352</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1044,7 +1026,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45913.5360164352</x:v>
+        <x:v>45906.6643954514</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1076,7 +1058,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6643954514</x:v>
+        <x:v>45913.5200596875</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1108,7 +1090,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45913.5200596875</x:v>
+        <x:v>45906.4142010417</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1140,7 +1122,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4142010417</x:v>
+        <x:v>45906.4143372338</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1172,7 +1154,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4143372338</x:v>
+        <x:v>45906.4159910532</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1204,7 +1186,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4159910532</x:v>
+        <x:v>45906.4145929051</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1236,7 +1218,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4145929051</x:v>
+        <x:v>45913.5323131944</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1268,7 +1250,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45913.5323131944</x:v>
+        <x:v>45914.7149191782</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1300,7 +1282,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.7149191782</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1332,7 +1314,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45906.4146991898</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1364,7 +1346,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4146991898</x:v>
+        <x:v>45914.7161256134</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1396,7 +1378,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.7161256134</x:v>
+        <x:v>45913.8205453704</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1428,7 +1410,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45913.8205453704</x:v>
+        <x:v>45906.6643790509</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1460,7 +1442,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6643790509</x:v>
+        <x:v>45906.6642594097</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1492,7 +1474,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6642594097</x:v>
+        <x:v>45906.4185215625</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1524,7 +1506,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4185215625</x:v>
+        <x:v>45906.4143330671</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1556,7 +1538,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4143330671</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1588,7 +1570,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45906.4149950579</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1620,7 +1602,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4149950579</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1652,7 +1634,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45913.9890988773</x:v>
+        <x:v>45913.5196659722</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1684,7 +1666,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1716,7 +1698,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45913.5196659722</x:v>
+        <x:v>45913.5364310185</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1748,7 +1730,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45906.4182658912</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1780,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45913.5364310185</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1812,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4182658912</x:v>
+        <x:v>45914.7018601852</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1844,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45906.5710977662</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,7 +1858,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.7018601852</x:v>
+        <x:v>45913.5199584491</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1894,70 +1876,6 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45906.5710977662</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45913.5199584491</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1970,9 +1888,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Natural Language Processing  (CMPS454) Location : [3704]3704-60-الجيزة الرئيسي Time : Thursday(16:18)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/CMPS454_Lecture-35558.xlsx
+++ b/downloaded_files/CMPS454_Lecture-35558.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -132,6 +132,15 @@
     <x:t>Doha Abdel Fattah Mohamed Yosry ELBeltagy</x:t>
   </x:si>
   <x:si>
+    <x:t>1210014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن اشرف محمود احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Ashraf Mahmoud Ahmed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210015</x:t>
   </x:si>
   <x:si>
@@ -186,6 +195,15 @@
     <x:t>Omar Ahmed Maher Kaddah</x:t>
   </x:si>
   <x:si>
+    <x:t>1220071</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمرو ايمن فاروق محمد امام</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amr Ayman Farouck Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>4230161</x:t>
   </x:si>
   <x:si>
@@ -238,6 +256,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ashraf Mohamed Mamdouh Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210073</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد توفيق اسماعيل توفيق اسماعيل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Tawfik Ismail Tawfik</x:t>
   </x:si>
   <x:si>
     <x:t>1210026</x:t>
@@ -443,7 +470,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +770,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1186,7 +1213,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4145929051</x:v>
+        <x:v>45928.9520469907</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1218,7 +1245,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45913.5323131944</x:v>
+        <x:v>45906.4145929051</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1250,7 +1277,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.7149191782</x:v>
+        <x:v>45913.5323131944</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1282,7 +1309,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45914.7149191782</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1314,7 +1341,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4146991898</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1346,7 +1373,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.7161256134</x:v>
+        <x:v>45906.4146991898</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1378,7 +1405,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45913.8205453704</x:v>
+        <x:v>45914.7161256134</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1410,7 +1437,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6643790509</x:v>
+        <x:v>45928.9581496875</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1442,7 +1469,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6642594097</x:v>
+        <x:v>45913.8205453704</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1474,7 +1501,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4185215625</x:v>
+        <x:v>45906.6643790509</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1506,7 +1533,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4143330671</x:v>
+        <x:v>45906.6642594097</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1538,7 +1565,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45906.4185215625</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1570,7 +1597,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4149950579</x:v>
+        <x:v>45906.4143330671</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1602,7 +1629,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1634,7 +1661,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45913.5196659722</x:v>
+        <x:v>45928.9587434028</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1666,7 +1693,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45906.4149950579</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1698,7 +1725,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45913.5364310185</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1730,7 +1757,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4182658912</x:v>
+        <x:v>45913.5196659722</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1762,7 +1789,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1794,7 +1821,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45914.7018601852</x:v>
+        <x:v>45913.5364310185</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1826,7 +1853,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.5710977662</x:v>
+        <x:v>45906.4182658912</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1858,7 +1885,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45913.5199584491</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1876,6 +1903,102 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45914.7018601852</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45906.5710977662</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45913.5199584491</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1888,6 +2011,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Natural Language Processing  (CMPS454) Location : [3704]3704-60-الجيزة الرئيسي Time : Thursday(16:18)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/CMPS454_Lecture-35558.xlsx
+++ b/downloaded_files/CMPS454_Lecture-35558.xlsx
@@ -39,7 +39,7 @@
     <x:t>احمد محمد محمود محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Mohammed Mahmoud Mohammed</x:t>
+    <x:t>Ahmed Mohamed Mahmoud Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210200</x:t>
@@ -228,7 +228,7 @@
     <x:t>لؤى احمد كمال عبدالغفار عثمان</x:t>
   </x:si>
   <x:si>
-    <x:t>Loay Ahmed Kamal Abdul Ghaffar Othman</x:t>
+    <x:t>Loay Ahmed Kamal Abdelghafar Othman</x:t>
   </x:si>
   <x:si>
     <x:t>1210158</x:t>
@@ -291,7 +291,7 @@
     <x:t>محمد ممدوح سيد محمد السمرى</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohamed Mamdouh Sayed Mohamed</x:t>
+    <x:t>Mohamed Mamdouh Sayed Mohamed Elsemary</x:t>
   </x:si>
   <x:si>
     <x:t>1210295</x:t>
